--- a/SWE/Software Specification/Architecture/GDD/GDD review.xlsx
+++ b/SWE/Software Specification/Architecture/GDD/GDD review.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Sovy - Digital Calculator PO1_DGC</t>
   </si>
@@ -90,7 +90,7 @@
     <t xml:space="preserve">Keypad manager module </t>
   </si>
   <si>
-    <t>On</t>
+    <t xml:space="preserve">       Add function to support multiline</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -674,10 +674,12 @@
       <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="16"/>
       <c r="F7" s="11" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
